--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/agressao/cv126071a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/agressao/cv126071a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>coeficientes de variação das estimativas de pessoas de 10 anos ou mais de idade que não procuraram a polícia em decorrência da última agressão física que foram vítimas, no período de referência de 365 dias (1 000 pessoas)</t>
   </si>
@@ -40,16 +40,10 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões</t>
   </si>
   <si>
     <t>norte</t>
@@ -419,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -484,28 +478,46 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B5">
+        <v>2.819445880657117</v>
+      </c>
+      <c r="C5">
+        <v>8.534405568320794</v>
+      </c>
+      <c r="D5">
+        <v>5.466189386034954</v>
+      </c>
+      <c r="E5">
+        <v>6.215808150151538</v>
+      </c>
+      <c r="F5">
+        <v>4.297858293765817</v>
+      </c>
+      <c r="G5">
+        <v>5.00353202529458</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>2.819445880657117</v>
+        <v>8.92540771474378</v>
       </c>
       <c r="C6">
-        <v>8.534405568320794</v>
+        <v>24.29965878689288</v>
       </c>
       <c r="D6">
-        <v>5.466189386034954</v>
+        <v>21.44046026641202</v>
       </c>
       <c r="E6">
-        <v>6.215808150151538</v>
+        <v>22.26418762083502</v>
       </c>
       <c r="F6">
-        <v>4.297858293765817</v>
+        <v>13.23311298665792</v>
       </c>
       <c r="G6">
-        <v>5.00353202529458</v>
+        <v>15.63271858159338</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -513,50 +525,68 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>8.92540771474378</v>
+        <v>6.188238752903519</v>
       </c>
       <c r="C7">
-        <v>24.29965878689288</v>
+        <v>17.01581678325871</v>
       </c>
       <c r="D7">
-        <v>21.44046026641202</v>
+        <v>13.18525471352792</v>
       </c>
       <c r="E7">
-        <v>22.26418762083502</v>
+        <v>12.07089681327325</v>
       </c>
       <c r="F7">
-        <v>13.23311298665792</v>
+        <v>10.43395808252298</v>
       </c>
       <c r="G7">
-        <v>15.63271858159338</v>
+        <v>12.10998492527917</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B8">
+        <v>4.939795389393185</v>
+      </c>
+      <c r="C8">
+        <v>13.04219763574572</v>
+      </c>
+      <c r="D8">
+        <v>10.45593347068585</v>
+      </c>
+      <c r="E8">
+        <v>9.092834535622572</v>
+      </c>
+      <c r="F8">
+        <v>6.623804980248399</v>
+      </c>
+      <c r="G8">
+        <v>9.549201139902086</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>6.188238752903519</v>
+        <v>4.782972489654047</v>
       </c>
       <c r="C9">
-        <v>17.01581678325871</v>
+        <v>17.63448800870302</v>
       </c>
       <c r="D9">
-        <v>13.18525471352792</v>
+        <v>9.821194541137777</v>
       </c>
       <c r="E9">
-        <v>12.07089681327325</v>
+        <v>12.32203816945351</v>
       </c>
       <c r="F9">
-        <v>10.43395808252298</v>
+        <v>7.777598305753113</v>
       </c>
       <c r="G9">
-        <v>12.10998492527917</v>
+        <v>8.130085505403811</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -564,67 +594,21 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>4.939795389393185</v>
+        <v>6.094158702772692</v>
       </c>
       <c r="C10">
-        <v>13.04219763574572</v>
+        <v>17.26886693991626</v>
       </c>
       <c r="D10">
-        <v>10.45593347068585</v>
+        <v>12.38707970935974</v>
       </c>
       <c r="E10">
-        <v>9.092834535622572</v>
+        <v>16.11269012594285</v>
       </c>
       <c r="F10">
-        <v>6.623804980248399</v>
+        <v>12.15089416203809</v>
       </c>
       <c r="G10">
-        <v>9.549201139902086</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>4.782972489654047</v>
-      </c>
-      <c r="C11">
-        <v>17.63448800870302</v>
-      </c>
-      <c r="D11">
-        <v>9.821194541137777</v>
-      </c>
-      <c r="E11">
-        <v>12.32203816945351</v>
-      </c>
-      <c r="F11">
-        <v>7.777598305753113</v>
-      </c>
-      <c r="G11">
-        <v>8.130085505403811</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>6.094158702772692</v>
-      </c>
-      <c r="C12">
-        <v>17.26886693991626</v>
-      </c>
-      <c r="D12">
-        <v>12.38707970935974</v>
-      </c>
-      <c r="E12">
-        <v>16.11269012594285</v>
-      </c>
-      <c r="F12">
-        <v>12.15089416203809</v>
-      </c>
-      <c r="G12">
         <v>10.66027549118894</v>
       </c>
     </row>
